--- a/Report/Files/PhasePlan.xlsx
+++ b/Report/Files/PhasePlan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,6 +20,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$A:$A,Sheet1!$2:$6</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>=</t>
   </si>
@@ -70,18 +71,12 @@
     <t>F2 Elaboration</t>
   </si>
   <si>
-    <t xml:space="preserve">Riskosanalyse </t>
-  </si>
-  <si>
     <t>Swot Analyse</t>
   </si>
   <si>
     <t>F3 Construction</t>
   </si>
   <si>
-    <t>System Sequence Diagrams</t>
-  </si>
-  <si>
     <t>Domain Model / Class Diagram</t>
   </si>
   <si>
@@ -127,9 +122,6 @@
     <t>Supplementary Specification / FURPS+</t>
   </si>
   <si>
-    <t>Gennemgang af kodning</t>
-  </si>
-  <si>
     <t>Kodning</t>
   </si>
   <si>
@@ -137,6 +129,39 @@
   </si>
   <si>
     <t>Gennemgå opgaven / PDF</t>
+  </si>
+  <si>
+    <t>System Sequence Diagrams (SSD + SD)</t>
+  </si>
+  <si>
+    <t>Risikoplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risikoanalyse </t>
+  </si>
+  <si>
+    <t>Tilretning af design</t>
+  </si>
+  <si>
+    <t>Gennemgang af kodning/testning</t>
+  </si>
+  <si>
+    <t>Iteration 1</t>
+  </si>
+  <si>
+    <t>Iteration 2</t>
+  </si>
+  <si>
+    <t>Iteration 3</t>
+  </si>
+  <si>
+    <t>Iteration 4</t>
+  </si>
+  <si>
+    <t>Iteration 5</t>
+  </si>
+  <si>
+    <t>Iterationer under konstruktion</t>
   </si>
 </sst>
 </file>
@@ -212,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,8 +268,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -449,6 +480,30 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -499,7 +554,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -519,9 +574,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -532,6 +584,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,11 +601,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
@@ -900,11 +978,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD50"/>
+  <dimension ref="A1:BD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -915,181 +993,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.55000000000000004">
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
     </row>
     <row r="2" spans="1:56" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="B2" s="38"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="25"/>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25"/>
-      <c r="BB2" s="25"/>
-      <c r="BC2" s="25"/>
-      <c r="BD2" s="25"/>
+      <c r="D2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="T2" s="37"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.55000000000000004">
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="25"/>
-      <c r="BB3" s="25"/>
-      <c r="BC3" s="25"/>
-      <c r="BD3" s="25"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="22"/>
+      <c r="AU3" s="22"/>
+      <c r="AV3" s="22"/>
+      <c r="AW3" s="22"/>
+      <c r="AX3" s="22"/>
+      <c r="AY3" s="22"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="22"/>
+      <c r="BB3" s="22"/>
+      <c r="BC3" s="22"/>
+      <c r="BD3" s="22"/>
     </row>
     <row r="4" spans="1:56" ht="26.1" thickBot="1" x14ac:dyDescent="1">
       <c r="A4" s="4">
         <v>2017</v>
       </c>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="25"/>
-      <c r="BB4" s="25"/>
-      <c r="BC4" s="25"/>
-      <c r="BD4" s="25"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="22"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="22"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
     </row>
     <row r="5" spans="1:56" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="A5" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33" t="s">
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33" t="s">
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="28"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="29"/>
-      <c r="BA5" s="29"/>
-      <c r="BB5" s="29"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="29"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="25"/>
+      <c r="AS5" s="25"/>
+      <c r="AT5" s="25"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
+      <c r="AW5" s="25"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="26"/>
+      <c r="BA5" s="26"/>
+      <c r="BB5" s="26"/>
+      <c r="BC5" s="26"/>
+      <c r="BD5" s="26"/>
     </row>
     <row r="6" spans="1:56" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A6" s="37" t="s">
-        <v>18</v>
+      <c r="A6" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>2</v>
@@ -1193,37 +1272,37 @@
       <c r="AI6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AJ6" s="27" t="s">
+      <c r="AJ6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="28"/>
-      <c r="AS6" s="28"/>
-      <c r="AT6" s="28"/>
-      <c r="AU6" s="28"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="28"/>
-      <c r="AX6" s="25"/>
-      <c r="AY6" s="25"/>
-      <c r="AZ6" s="25"/>
-      <c r="BA6" s="25"/>
-      <c r="BB6" s="25"/>
-      <c r="BC6" s="25"/>
-      <c r="BD6" s="25"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="25"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="25"/>
+      <c r="AW6" s="25"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+      <c r="BD6" s="22"/>
     </row>
     <row r="7" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="23"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="16"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1239,49 +1318,49 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="20"/>
+      <c r="T7" s="17"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="20"/>
+      <c r="AA7" s="17"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
-      <c r="AH7" s="20"/>
+      <c r="AH7" s="17"/>
       <c r="AI7" s="6"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
-      <c r="AU7" s="28"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="28"/>
-      <c r="AX7" s="25"/>
-      <c r="AY7" s="25"/>
-      <c r="AZ7" s="25"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="25"/>
-      <c r="BD7" s="25"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="22"/>
+      <c r="AY7" s="22"/>
+      <c r="AZ7" s="22"/>
+      <c r="BA7" s="22"/>
+      <c r="BB7" s="22"/>
+      <c r="BC7" s="22"/>
+      <c r="BD7" s="22"/>
     </row>
     <row r="8" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1299,46 +1378,46 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="21"/>
+      <c r="T8" s="18"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="21"/>
+      <c r="AA8" s="18"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="21"/>
+      <c r="AH8" s="18"/>
       <c r="AI8" s="5"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28"/>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="25"/>
-      <c r="BA8" s="25"/>
-      <c r="BB8" s="25"/>
-      <c r="BC8" s="25"/>
-      <c r="BD8" s="25"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="25"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="25"/>
+      <c r="AV8" s="25"/>
+      <c r="AW8" s="25"/>
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="22"/>
+      <c r="AZ8" s="22"/>
+      <c r="BA8" s="22"/>
+      <c r="BB8" s="22"/>
+      <c r="BC8" s="22"/>
+      <c r="BD8" s="22"/>
     </row>
     <row r="9" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="15"/>
@@ -1359,14 +1438,14 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
-      <c r="T9" s="24"/>
+      <c r="T9" s="21"/>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
-      <c r="AA9" s="24"/>
+      <c r="AA9" s="21"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
@@ -1375,30 +1454,30 @@
       <c r="AG9" s="15"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="28"/>
-      <c r="AQ9" s="28"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="28"/>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="28"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25"/>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="22"/>
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22"/>
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
     </row>
     <row r="10" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="15"/>
@@ -1419,47 +1498,47 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="21"/>
+      <c r="T10" s="18"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="21"/>
+      <c r="AA10" s="18"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="21"/>
+      <c r="AH10" s="18"/>
       <c r="AI10" s="5"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="28"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
-      <c r="AP10" s="28"/>
-      <c r="AQ10" s="28"/>
-      <c r="AR10" s="28"/>
-      <c r="AS10" s="28"/>
-      <c r="AT10" s="28"/>
-      <c r="AU10" s="28"/>
-      <c r="AV10" s="28"/>
-      <c r="AW10" s="28"/>
-      <c r="AX10" s="25"/>
-      <c r="AY10" s="25"/>
-      <c r="AZ10" s="25"/>
-      <c r="BA10" s="25"/>
-      <c r="BB10" s="25"/>
-      <c r="BC10" s="25"/>
-      <c r="BD10" s="25"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="25"/>
+      <c r="AV10" s="25"/>
+      <c r="AW10" s="25"/>
+      <c r="AX10" s="22"/>
+      <c r="AY10" s="22"/>
+      <c r="AZ10" s="22"/>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="22"/>
+      <c r="BC10" s="22"/>
+      <c r="BD10" s="22"/>
     </row>
     <row r="11" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="35" t="s">
-        <v>13</v>
+      <c r="A11" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1479,47 +1558,47 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="21"/>
+      <c r="T11" s="18"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="21"/>
+      <c r="AA11" s="18"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
-      <c r="AH11" s="21"/>
+      <c r="AH11" s="18"/>
       <c r="AI11" s="5"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="25"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="25"/>
-      <c r="AV11" s="25"/>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="25"/>
-      <c r="AY11" s="25"/>
-      <c r="AZ11" s="25"/>
-      <c r="BA11" s="25"/>
-      <c r="BB11" s="25"/>
-      <c r="BC11" s="25"/>
-      <c r="BD11" s="25"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="22"/>
+      <c r="AQ11" s="22"/>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="22"/>
+      <c r="AT11" s="22"/>
+      <c r="AU11" s="22"/>
+      <c r="AV11" s="22"/>
+      <c r="AW11" s="22"/>
+      <c r="AX11" s="22"/>
+      <c r="AY11" s="22"/>
+      <c r="AZ11" s="22"/>
+      <c r="BA11" s="22"/>
+      <c r="BB11" s="22"/>
+      <c r="BC11" s="22"/>
+      <c r="BD11" s="22"/>
     </row>
     <row r="12" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="35" t="s">
-        <v>29</v>
+      <c r="A12" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1539,47 +1618,47 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="21"/>
+      <c r="T12" s="18"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="21"/>
+      <c r="AA12" s="18"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="21"/>
+      <c r="AH12" s="18"/>
       <c r="AI12" s="5"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="25"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="25"/>
-      <c r="AU12" s="25"/>
-      <c r="AV12" s="25"/>
-      <c r="AW12" s="25"/>
-      <c r="AX12" s="25"/>
-      <c r="AY12" s="25"/>
-      <c r="AZ12" s="25"/>
-      <c r="BA12" s="25"/>
-      <c r="BB12" s="25"/>
-      <c r="BC12" s="25"/>
-      <c r="BD12" s="25"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="22"/>
+      <c r="AQ12" s="22"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="22"/>
+      <c r="AT12" s="22"/>
+      <c r="AU12" s="22"/>
+      <c r="AV12" s="22"/>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="22"/>
+      <c r="AY12" s="22"/>
+      <c r="AZ12" s="22"/>
+      <c r="BA12" s="22"/>
+      <c r="BB12" s="22"/>
+      <c r="BC12" s="22"/>
+      <c r="BD12" s="22"/>
     </row>
     <row r="13" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="35" t="s">
-        <v>27</v>
+      <c r="A13" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="15"/>
@@ -1599,46 +1678,46 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="21"/>
+      <c r="T13" s="18"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="21"/>
+      <c r="AA13" s="18"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="21"/>
+      <c r="AH13" s="18"/>
       <c r="AI13" s="5"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="25"/>
-      <c r="AQ13" s="25"/>
-      <c r="AR13" s="25"/>
-      <c r="AS13" s="25"/>
-      <c r="AT13" s="25"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="25"/>
-      <c r="AW13" s="25"/>
-      <c r="AX13" s="25"/>
-      <c r="AY13" s="25"/>
-      <c r="AZ13" s="25"/>
-      <c r="BA13" s="25"/>
-      <c r="BB13" s="25"/>
-      <c r="BC13" s="25"/>
-      <c r="BD13" s="25"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="22"/>
+      <c r="AP13" s="22"/>
+      <c r="AQ13" s="22"/>
+      <c r="AR13" s="22"/>
+      <c r="AS13" s="22"/>
+      <c r="AT13" s="22"/>
+      <c r="AU13" s="22"/>
+      <c r="AV13" s="22"/>
+      <c r="AW13" s="22"/>
+      <c r="AX13" s="22"/>
+      <c r="AY13" s="22"/>
+      <c r="AZ13" s="22"/>
+      <c r="BA13" s="22"/>
+      <c r="BB13" s="22"/>
+      <c r="BC13" s="22"/>
+      <c r="BD13" s="22"/>
     </row>
     <row r="14" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="5"/>
@@ -1659,50 +1738,50 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="21"/>
+      <c r="T14" s="18"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="21"/>
+      <c r="AA14" s="18"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
-      <c r="AH14" s="21"/>
+      <c r="AH14" s="18"/>
       <c r="AI14" s="5"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="25"/>
-      <c r="AW14" s="25"/>
-      <c r="AX14" s="25"/>
-      <c r="AY14" s="25"/>
-      <c r="AZ14" s="25"/>
-      <c r="BA14" s="25"/>
-      <c r="BB14" s="25"/>
-      <c r="BC14" s="25"/>
-      <c r="BD14" s="25"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="22"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="22"/>
+      <c r="AZ14" s="22"/>
+      <c r="BA14" s="22"/>
+      <c r="BB14" s="22"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="22"/>
     </row>
     <row r="15" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="35" t="s">
-        <v>28</v>
+      <c r="A15" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="5"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -1719,53 +1798,53 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="21"/>
+      <c r="T15" s="18"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="21"/>
+      <c r="AA15" s="18"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="21"/>
+      <c r="AH15" s="18"/>
       <c r="AI15" s="5"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="25"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="25"/>
-      <c r="BD15" s="25"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="22"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="22"/>
+      <c r="AT15" s="22"/>
+      <c r="AU15" s="22"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="22"/>
+      <c r="AY15" s="22"/>
+      <c r="AZ15" s="22"/>
+      <c r="BA15" s="22"/>
+      <c r="BB15" s="22"/>
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="22"/>
     </row>
     <row r="16" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="35" t="s">
-        <v>30</v>
+      <c r="A16" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1779,56 +1858,56 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="21"/>
+      <c r="T16" s="18"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="21"/>
+      <c r="AA16" s="18"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
-      <c r="AH16" s="21"/>
+      <c r="AH16" s="18"/>
       <c r="AI16" s="5"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="25"/>
-      <c r="AR16" s="25"/>
-      <c r="AS16" s="25"/>
-      <c r="AT16" s="25"/>
-      <c r="AU16" s="25"/>
-      <c r="AV16" s="25"/>
-      <c r="AW16" s="25"/>
-      <c r="AX16" s="25"/>
-      <c r="AY16" s="25"/>
-      <c r="AZ16" s="25"/>
-      <c r="BA16" s="25"/>
-      <c r="BB16" s="25"/>
-      <c r="BC16" s="25"/>
-      <c r="BD16" s="25"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="22"/>
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="22"/>
+      <c r="AT16" s="22"/>
+      <c r="AU16" s="22"/>
+      <c r="AV16" s="22"/>
+      <c r="AW16" s="22"/>
+      <c r="AX16" s="22"/>
+      <c r="AY16" s="22"/>
+      <c r="AZ16" s="22"/>
+      <c r="BA16" s="22"/>
+      <c r="BB16" s="22"/>
+      <c r="BC16" s="22"/>
+      <c r="BD16" s="22"/>
     </row>
     <row r="17" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A17" s="35" t="s">
-        <v>12</v>
+      <c r="A17" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="15"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1839,56 +1918,56 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="21"/>
+      <c r="T17" s="18"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-      <c r="AA17" s="21"/>
+      <c r="AA17" s="18"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
-      <c r="AH17" s="21"/>
+      <c r="AH17" s="18"/>
       <c r="AI17" s="5"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="25"/>
-      <c r="AL17" s="25"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="25"/>
-      <c r="AP17" s="25"/>
-      <c r="AQ17" s="25"/>
-      <c r="AR17" s="25"/>
-      <c r="AS17" s="25"/>
-      <c r="AT17" s="25"/>
-      <c r="AU17" s="25"/>
-      <c r="AV17" s="25"/>
-      <c r="AW17" s="25"/>
-      <c r="AX17" s="25"/>
-      <c r="AY17" s="25"/>
-      <c r="AZ17" s="25"/>
-      <c r="BA17" s="25"/>
-      <c r="BB17" s="25"/>
-      <c r="BC17" s="25"/>
-      <c r="BD17" s="25"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="22"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="22"/>
+      <c r="AT17" s="22"/>
+      <c r="AU17" s="22"/>
+      <c r="AV17" s="22"/>
+      <c r="AW17" s="22"/>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="22"/>
+      <c r="AZ17" s="22"/>
+      <c r="BA17" s="22"/>
+      <c r="BB17" s="22"/>
+      <c r="BC17" s="22"/>
+      <c r="BD17" s="22"/>
     </row>
     <row r="18" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A18" s="35" t="s">
-        <v>15</v>
+      <c r="A18" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="15"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1899,47 +1978,47 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="21"/>
+      <c r="T18" s="18"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="21"/>
+      <c r="AA18" s="18"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
-      <c r="AH18" s="21"/>
+      <c r="AH18" s="18"/>
       <c r="AI18" s="5"/>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="25"/>
-      <c r="AL18" s="25"/>
-      <c r="AM18" s="25"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="25"/>
-      <c r="AP18" s="25"/>
-      <c r="AQ18" s="25"/>
-      <c r="AR18" s="25"/>
-      <c r="AS18" s="25"/>
-      <c r="AT18" s="25"/>
-      <c r="AU18" s="25"/>
-      <c r="AV18" s="25"/>
-      <c r="AW18" s="25"/>
-      <c r="AX18" s="25"/>
-      <c r="AY18" s="25"/>
-      <c r="AZ18" s="25"/>
-      <c r="BA18" s="25"/>
-      <c r="BB18" s="25"/>
-      <c r="BC18" s="25"/>
-      <c r="BD18" s="25"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="22"/>
+      <c r="AP18" s="22"/>
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="22"/>
+      <c r="AT18" s="22"/>
+      <c r="AU18" s="22"/>
+      <c r="AV18" s="22"/>
+      <c r="AW18" s="22"/>
+      <c r="AX18" s="22"/>
+      <c r="AY18" s="22"/>
+      <c r="AZ18" s="22"/>
+      <c r="BA18" s="22"/>
+      <c r="BB18" s="22"/>
+      <c r="BC18" s="22"/>
+      <c r="BD18" s="22"/>
     </row>
     <row r="19" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A19" s="35" t="s">
-        <v>16</v>
+      <c r="A19" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1948,10 +2027,10 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="15"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -1959,57 +2038,56 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="21"/>
+      <c r="T19" s="18"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="21"/>
+      <c r="AA19" s="18"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
-      <c r="AH19" s="21"/>
+      <c r="AH19" s="18"/>
       <c r="AI19" s="5"/>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="25"/>
-      <c r="AL19" s="25"/>
-      <c r="AM19" s="25"/>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="25"/>
-      <c r="AP19" s="25"/>
-      <c r="AQ19" s="25"/>
-      <c r="AR19" s="25"/>
-      <c r="AS19" s="25"/>
-      <c r="AT19" s="25"/>
-      <c r="AU19" s="25"/>
-      <c r="AV19" s="25"/>
-      <c r="AW19" s="25"/>
-      <c r="AX19" s="25"/>
-      <c r="AY19" s="25"/>
-      <c r="AZ19" s="25"/>
-      <c r="BA19" s="25"/>
-      <c r="BB19" s="25"/>
-      <c r="BC19" s="25"/>
-      <c r="BD19" s="25"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="22"/>
+      <c r="AP19" s="22"/>
+      <c r="AQ19" s="22"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="22"/>
+      <c r="AT19" s="22"/>
+      <c r="AU19" s="22"/>
+      <c r="AV19" s="22"/>
+      <c r="AW19" s="22"/>
+      <c r="AX19" s="22"/>
+      <c r="AY19" s="22"/>
+      <c r="AZ19" s="22"/>
+      <c r="BA19" s="22"/>
+      <c r="BB19" s="22"/>
+      <c r="BC19" s="22"/>
+      <c r="BD19" s="22"/>
     </row>
     <row r="20" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="I20" s="15"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -2019,47 +2097,47 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="21"/>
+      <c r="T20" s="18"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="21"/>
+      <c r="AA20" s="18"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
-      <c r="AH20" s="21"/>
+      <c r="AH20" s="18"/>
       <c r="AI20" s="5"/>
-      <c r="AJ20" s="21"/>
-      <c r="AK20" s="25"/>
-      <c r="AL20" s="25"/>
-      <c r="AM20" s="25"/>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="25"/>
-      <c r="AQ20" s="25"/>
-      <c r="AR20" s="25"/>
-      <c r="AS20" s="25"/>
-      <c r="AT20" s="25"/>
-      <c r="AU20" s="25"/>
-      <c r="AV20" s="25"/>
-      <c r="AW20" s="25"/>
-      <c r="AX20" s="25"/>
-      <c r="AY20" s="25"/>
-      <c r="AZ20" s="25"/>
-      <c r="BA20" s="25"/>
-      <c r="BB20" s="25"/>
-      <c r="BC20" s="25"/>
-      <c r="BD20" s="25"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="22"/>
+      <c r="AW20" s="22"/>
+      <c r="AX20" s="22"/>
+      <c r="AY20" s="22"/>
+      <c r="AZ20" s="22"/>
+      <c r="BA20" s="22"/>
+      <c r="BB20" s="22"/>
+      <c r="BC20" s="22"/>
+      <c r="BD20" s="22"/>
     </row>
     <row r="21" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="35" t="s">
-        <v>17</v>
+      <c r="A21" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2071,55 +2149,55 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
+      <c r="T21" s="18"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
+      <c r="AA21" s="18"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
+      <c r="AH21" s="18"/>
       <c r="AI21" s="5"/>
-      <c r="AJ21" s="21"/>
-      <c r="AK21" s="25"/>
-      <c r="AL21" s="25"/>
-      <c r="AM21" s="25"/>
-      <c r="AN21" s="25"/>
-      <c r="AO21" s="25"/>
-      <c r="AP21" s="25"/>
-      <c r="AQ21" s="25"/>
-      <c r="AR21" s="25"/>
-      <c r="AS21" s="25"/>
-      <c r="AT21" s="25"/>
-      <c r="AU21" s="25"/>
-      <c r="AV21" s="25"/>
-      <c r="AW21" s="25"/>
-      <c r="AX21" s="25"/>
-      <c r="AY21" s="25"/>
-      <c r="AZ21" s="25"/>
-      <c r="BA21" s="25"/>
-      <c r="BB21" s="25"/>
-      <c r="BC21" s="25"/>
-      <c r="BD21" s="25"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="22"/>
+      <c r="AY21" s="22"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="22"/>
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="22"/>
+      <c r="BD21" s="22"/>
     </row>
     <row r="22" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="35" t="s">
-        <v>32</v>
+      <c r="A22" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2131,55 +2209,65 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
+      <c r="L22" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" s="45"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="46"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
+      <c r="AH22" s="18"/>
       <c r="AI22" s="5"/>
-      <c r="AJ22" s="21"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="25"/>
-      <c r="AQ22" s="25"/>
-      <c r="AR22" s="25"/>
-      <c r="AS22" s="25"/>
-      <c r="AT22" s="25"/>
-      <c r="AU22" s="25"/>
-      <c r="AV22" s="25"/>
-      <c r="AW22" s="25"/>
-      <c r="AX22" s="25"/>
-      <c r="AY22" s="25"/>
-      <c r="AZ22" s="25"/>
-      <c r="BA22" s="25"/>
-      <c r="BB22" s="25"/>
-      <c r="BC22" s="25"/>
-      <c r="BD22" s="25"/>
-    </row>
-    <row r="23" spans="1:56" ht="22.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A23" s="35" t="s">
-        <v>31</v>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="22"/>
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="22"/>
+      <c r="AT22" s="22"/>
+      <c r="AU22" s="22"/>
+      <c r="AV22" s="22"/>
+      <c r="AW22" s="22"/>
+      <c r="AX22" s="22"/>
+      <c r="AY22" s="22"/>
+      <c r="AZ22" s="22"/>
+      <c r="BA22" s="22"/>
+      <c r="BB22" s="22"/>
+      <c r="BC22" s="22"/>
+      <c r="BD22" s="22"/>
+    </row>
+    <row r="23" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A23" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2191,55 +2279,55 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="25"/>
-      <c r="AL23" s="25"/>
-      <c r="AM23" s="25"/>
-      <c r="AN23" s="25"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="25"/>
-      <c r="AQ23" s="25"/>
-      <c r="AR23" s="25"/>
-      <c r="AS23" s="25"/>
-      <c r="AT23" s="25"/>
-      <c r="AU23" s="25"/>
-      <c r="AV23" s="25"/>
-      <c r="AW23" s="25"/>
-      <c r="AX23" s="25"/>
-      <c r="AY23" s="25"/>
-      <c r="AZ23" s="25"/>
-      <c r="BA23" s="25"/>
-      <c r="BB23" s="25"/>
-      <c r="BC23" s="25"/>
-      <c r="BD23" s="25"/>
-    </row>
-    <row r="24" spans="1:56" ht="22.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A24" s="34" t="s">
-        <v>19</v>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="22"/>
+      <c r="AO23" s="22"/>
+      <c r="AP23" s="22"/>
+      <c r="AQ23" s="22"/>
+      <c r="AR23" s="22"/>
+      <c r="AS23" s="22"/>
+      <c r="AT23" s="22"/>
+      <c r="AU23" s="22"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="22"/>
+      <c r="AX23" s="22"/>
+      <c r="AY23" s="22"/>
+      <c r="AZ23" s="22"/>
+      <c r="BA23" s="22"/>
+      <c r="BB23" s="22"/>
+      <c r="BC23" s="22"/>
+      <c r="BD23" s="22"/>
+    </row>
+    <row r="24" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A24" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2251,55 +2339,55 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="25"/>
-      <c r="AQ24" s="25"/>
-      <c r="AR24" s="25"/>
-      <c r="AS24" s="25"/>
-      <c r="AT24" s="25"/>
-      <c r="AU24" s="25"/>
-      <c r="AV24" s="25"/>
-      <c r="AW24" s="25"/>
-      <c r="AX24" s="25"/>
-      <c r="AY24" s="25"/>
-      <c r="AZ24" s="25"/>
-      <c r="BA24" s="25"/>
-      <c r="BB24" s="25"/>
-      <c r="BC24" s="25"/>
-      <c r="BD24" s="25"/>
-    </row>
-    <row r="25" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A25" s="35" t="s">
-        <v>34</v>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="22"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="22"/>
+      <c r="AP24" s="22"/>
+      <c r="AQ24" s="22"/>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="22"/>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="22"/>
+      <c r="AV24" s="22"/>
+      <c r="AW24" s="22"/>
+      <c r="AX24" s="22"/>
+      <c r="AY24" s="22"/>
+      <c r="AZ24" s="22"/>
+      <c r="BA24" s="22"/>
+      <c r="BB24" s="22"/>
+      <c r="BC24" s="22"/>
+      <c r="BD24" s="22"/>
+    </row>
+    <row r="25" spans="1:56" ht="22.8" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A25" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2311,55 +2399,55 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="25"/>
-      <c r="AQ25" s="25"/>
-      <c r="AR25" s="25"/>
-      <c r="AS25" s="25"/>
-      <c r="AT25" s="25"/>
-      <c r="AU25" s="25"/>
-      <c r="AV25" s="25"/>
-      <c r="AW25" s="25"/>
-      <c r="AX25" s="25"/>
-      <c r="AY25" s="25"/>
-      <c r="AZ25" s="25"/>
-      <c r="BA25" s="25"/>
-      <c r="BB25" s="25"/>
-      <c r="BC25" s="25"/>
-      <c r="BD25" s="25"/>
-    </row>
-    <row r="26" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A26" s="35" t="s">
-        <v>33</v>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="22"/>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="22"/>
+      <c r="AP25" s="22"/>
+      <c r="AQ25" s="22"/>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="22"/>
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="22"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="22"/>
+      <c r="AX25" s="22"/>
+      <c r="AY25" s="22"/>
+      <c r="AZ25" s="22"/>
+      <c r="BA25" s="22"/>
+      <c r="BB25" s="22"/>
+      <c r="BC25" s="22"/>
+      <c r="BD25" s="22"/>
+    </row>
+    <row r="26" spans="1:56" ht="22.8" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A26" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2371,54 +2459,56 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
-      <c r="AH26" s="15"/>
+      <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
-      <c r="AJ26" s="21"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="25"/>
-      <c r="AQ26" s="25"/>
-      <c r="AR26" s="25"/>
-      <c r="AS26" s="25"/>
-      <c r="AT26" s="25"/>
-      <c r="AU26" s="25"/>
-      <c r="AV26" s="25"/>
-      <c r="AW26" s="25"/>
-      <c r="AX26" s="25"/>
-      <c r="AY26" s="25"/>
-      <c r="AZ26" s="25"/>
-      <c r="BA26" s="25"/>
-      <c r="BB26" s="25"/>
-      <c r="BC26" s="25"/>
-      <c r="BD26" s="25"/>
-    </row>
-    <row r="27" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="22"/>
+      <c r="AL26" s="22"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="22"/>
+      <c r="AP26" s="22"/>
+      <c r="AQ26" s="22"/>
+      <c r="AR26" s="22"/>
+      <c r="AS26" s="22"/>
+      <c r="AT26" s="22"/>
+      <c r="AU26" s="22"/>
+      <c r="AV26" s="22"/>
+      <c r="AW26" s="22"/>
+      <c r="AX26" s="22"/>
+      <c r="AY26" s="22"/>
+      <c r="AZ26" s="22"/>
+      <c r="BA26" s="22"/>
+      <c r="BB26" s="22"/>
+      <c r="BC26" s="22"/>
+      <c r="BD26" s="22"/>
+    </row>
+    <row r="27" spans="1:56" ht="22.8" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A27" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2453,30 +2543,32 @@
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
-      <c r="AJ27" s="21"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="25"/>
-      <c r="AM27" s="25"/>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="25"/>
-      <c r="AP27" s="25"/>
-      <c r="AQ27" s="25"/>
-      <c r="AR27" s="25"/>
-      <c r="AS27" s="25"/>
-      <c r="AT27" s="25"/>
-      <c r="AU27" s="25"/>
-      <c r="AV27" s="25"/>
-      <c r="AW27" s="25"/>
-      <c r="AX27" s="25"/>
-      <c r="AY27" s="25"/>
-      <c r="AZ27" s="25"/>
-      <c r="BA27" s="25"/>
-      <c r="BB27" s="25"/>
-      <c r="BC27" s="25"/>
-      <c r="BD27" s="25"/>
-    </row>
-    <row r="28" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="22"/>
+      <c r="AP27" s="22"/>
+      <c r="AQ27" s="22"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="22"/>
+      <c r="AT27" s="22"/>
+      <c r="AU27" s="22"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="22"/>
+      <c r="AX27" s="22"/>
+      <c r="AY27" s="22"/>
+      <c r="AZ27" s="22"/>
+      <c r="BA27" s="22"/>
+      <c r="BB27" s="22"/>
+      <c r="BC27" s="22"/>
+      <c r="BD27" s="22"/>
+    </row>
+    <row r="28" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A28" s="28" t="s">
+        <v>31</v>
+      </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2506,35 +2598,37 @@
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
       <c r="AI28" s="5"/>
-      <c r="AJ28" s="21"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
-      <c r="AP28" s="25"/>
-      <c r="AQ28" s="25"/>
-      <c r="AR28" s="25"/>
-      <c r="AS28" s="25"/>
-      <c r="AT28" s="25"/>
-      <c r="AU28" s="25"/>
-      <c r="AV28" s="25"/>
-      <c r="AW28" s="25"/>
-      <c r="AX28" s="25"/>
-      <c r="AY28" s="25"/>
-      <c r="AZ28" s="25"/>
-      <c r="BA28" s="25"/>
-      <c r="BB28" s="25"/>
-      <c r="BC28" s="25"/>
-      <c r="BD28" s="25"/>
-    </row>
-    <row r="29" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="22"/>
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="22"/>
+      <c r="AY28" s="22"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="22"/>
+      <c r="BB28" s="22"/>
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="22"/>
+    </row>
+    <row r="29" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A29" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2567,29 +2661,29 @@
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
+      <c r="AH29" s="15"/>
       <c r="AI29" s="5"/>
-      <c r="AJ29" s="21"/>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="25"/>
-      <c r="AM29" s="25"/>
-      <c r="AN29" s="25"/>
-      <c r="AO29" s="25"/>
-      <c r="AP29" s="25"/>
-      <c r="AQ29" s="25"/>
-      <c r="AR29" s="25"/>
-      <c r="AS29" s="25"/>
-      <c r="AT29" s="25"/>
-      <c r="AU29" s="25"/>
-      <c r="AV29" s="25"/>
-      <c r="AW29" s="25"/>
-      <c r="AX29" s="25"/>
-      <c r="AY29" s="25"/>
-      <c r="AZ29" s="25"/>
-      <c r="BA29" s="25"/>
-      <c r="BB29" s="25"/>
-      <c r="BC29" s="25"/>
-      <c r="BD29" s="25"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="22"/>
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="22"/>
+      <c r="AQ29" s="22"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="22"/>
+      <c r="AU29" s="22"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="22"/>
+      <c r="AX29" s="22"/>
+      <c r="AY29" s="22"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="22"/>
+      <c r="BB29" s="22"/>
+      <c r="BC29" s="22"/>
+      <c r="BD29" s="22"/>
     </row>
     <row r="30" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
@@ -2627,27 +2721,27 @@
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
-      <c r="AJ30" s="21"/>
-      <c r="AK30" s="25"/>
-      <c r="AL30" s="25"/>
-      <c r="AM30" s="25"/>
-      <c r="AN30" s="25"/>
-      <c r="AO30" s="25"/>
-      <c r="AP30" s="25"/>
-      <c r="AQ30" s="25"/>
-      <c r="AR30" s="25"/>
-      <c r="AS30" s="25"/>
-      <c r="AT30" s="25"/>
-      <c r="AU30" s="25"/>
-      <c r="AV30" s="25"/>
-      <c r="AW30" s="25"/>
-      <c r="AX30" s="25"/>
-      <c r="AY30" s="25"/>
-      <c r="AZ30" s="25"/>
-      <c r="BA30" s="25"/>
-      <c r="BB30" s="25"/>
-      <c r="BC30" s="25"/>
-      <c r="BD30" s="25"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="22"/>
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="22"/>
+      <c r="AP30" s="22"/>
+      <c r="AQ30" s="22"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="22"/>
+      <c r="AX30" s="22"/>
+      <c r="AY30" s="22"/>
+      <c r="AZ30" s="22"/>
+      <c r="BA30" s="22"/>
+      <c r="BB30" s="22"/>
+      <c r="BC30" s="22"/>
+      <c r="BD30" s="22"/>
     </row>
     <row r="31" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
@@ -2685,27 +2779,27 @@
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
-      <c r="AJ31" s="21"/>
-      <c r="AK31" s="25"/>
-      <c r="AL31" s="25"/>
-      <c r="AM31" s="25"/>
-      <c r="AN31" s="25"/>
-      <c r="AO31" s="25"/>
-      <c r="AP31" s="25"/>
-      <c r="AQ31" s="25"/>
-      <c r="AR31" s="25"/>
-      <c r="AS31" s="25"/>
-      <c r="AT31" s="25"/>
-      <c r="AU31" s="25"/>
-      <c r="AV31" s="25"/>
-      <c r="AW31" s="25"/>
-      <c r="AX31" s="25"/>
-      <c r="AY31" s="25"/>
-      <c r="AZ31" s="25"/>
-      <c r="BA31" s="25"/>
-      <c r="BB31" s="25"/>
-      <c r="BC31" s="25"/>
-      <c r="BD31" s="25"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="22"/>
+      <c r="AN31" s="22"/>
+      <c r="AO31" s="22"/>
+      <c r="AP31" s="22"/>
+      <c r="AQ31" s="22"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="22"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="22"/>
+      <c r="AX31" s="22"/>
+      <c r="AY31" s="22"/>
+      <c r="AZ31" s="22"/>
+      <c r="BA31" s="22"/>
+      <c r="BB31" s="22"/>
+      <c r="BC31" s="22"/>
+      <c r="BD31" s="22"/>
     </row>
     <row r="32" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
@@ -2743,27 +2837,27 @@
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
-      <c r="AJ32" s="21"/>
-      <c r="AK32" s="25"/>
-      <c r="AL32" s="25"/>
-      <c r="AM32" s="25"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="25"/>
-      <c r="AP32" s="25"/>
-      <c r="AQ32" s="25"/>
-      <c r="AR32" s="25"/>
-      <c r="AS32" s="25"/>
-      <c r="AT32" s="25"/>
-      <c r="AU32" s="25"/>
-      <c r="AV32" s="25"/>
-      <c r="AW32" s="25"/>
-      <c r="AX32" s="25"/>
-      <c r="AY32" s="25"/>
-      <c r="AZ32" s="25"/>
-      <c r="BA32" s="25"/>
-      <c r="BB32" s="25"/>
-      <c r="BC32" s="25"/>
-      <c r="BD32" s="25"/>
+      <c r="AJ32" s="18"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="22"/>
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="22"/>
+      <c r="AO32" s="22"/>
+      <c r="AP32" s="22"/>
+      <c r="AQ32" s="22"/>
+      <c r="AR32" s="22"/>
+      <c r="AS32" s="22"/>
+      <c r="AT32" s="22"/>
+      <c r="AU32" s="22"/>
+      <c r="AV32" s="22"/>
+      <c r="AW32" s="22"/>
+      <c r="AX32" s="22"/>
+      <c r="AY32" s="22"/>
+      <c r="AZ32" s="22"/>
+      <c r="BA32" s="22"/>
+      <c r="BB32" s="22"/>
+      <c r="BC32" s="22"/>
+      <c r="BD32" s="22"/>
     </row>
     <row r="33" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
@@ -2801,201 +2895,201 @@
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
-      <c r="AJ33" s="21"/>
-      <c r="AK33" s="25"/>
-      <c r="AL33" s="25"/>
-      <c r="AM33" s="25"/>
-      <c r="AN33" s="25"/>
-      <c r="AO33" s="25"/>
-      <c r="AP33" s="25"/>
-      <c r="AQ33" s="25"/>
-      <c r="AR33" s="25"/>
-      <c r="AS33" s="25"/>
-      <c r="AT33" s="25"/>
-      <c r="AU33" s="25"/>
-      <c r="AV33" s="25"/>
-      <c r="AW33" s="25"/>
-      <c r="AX33" s="25"/>
-      <c r="AY33" s="25"/>
-      <c r="AZ33" s="25"/>
-      <c r="BA33" s="25"/>
-      <c r="BB33" s="25"/>
-      <c r="BC33" s="25"/>
-      <c r="BD33" s="25"/>
+      <c r="AJ33" s="18"/>
+      <c r="AK33" s="22"/>
+      <c r="AL33" s="22"/>
+      <c r="AM33" s="22"/>
+      <c r="AN33" s="22"/>
+      <c r="AO33" s="22"/>
+      <c r="AP33" s="22"/>
+      <c r="AQ33" s="22"/>
+      <c r="AR33" s="22"/>
+      <c r="AS33" s="22"/>
+      <c r="AT33" s="22"/>
+      <c r="AU33" s="22"/>
+      <c r="AV33" s="22"/>
+      <c r="AW33" s="22"/>
+      <c r="AX33" s="22"/>
+      <c r="AY33" s="22"/>
+      <c r="AZ33" s="22"/>
+      <c r="BA33" s="22"/>
+      <c r="BB33" s="22"/>
+      <c r="BC33" s="22"/>
+      <c r="BD33" s="22"/>
     </row>
     <row r="34" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="25"/>
-      <c r="AL34" s="25"/>
-      <c r="AM34" s="25"/>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="25"/>
-      <c r="AP34" s="25"/>
-      <c r="AQ34" s="25"/>
-      <c r="AR34" s="25"/>
-      <c r="AS34" s="25"/>
-      <c r="AT34" s="25"/>
-      <c r="AU34" s="25"/>
-      <c r="AV34" s="25"/>
-      <c r="AW34" s="25"/>
-      <c r="AX34" s="25"/>
-      <c r="AY34" s="25"/>
-      <c r="AZ34" s="25"/>
-      <c r="BA34" s="25"/>
-      <c r="BB34" s="25"/>
-      <c r="BC34" s="25"/>
-      <c r="BD34" s="25"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="18"/>
+      <c r="AK34" s="22"/>
+      <c r="AL34" s="22"/>
+      <c r="AM34" s="22"/>
+      <c r="AN34" s="22"/>
+      <c r="AO34" s="22"/>
+      <c r="AP34" s="22"/>
+      <c r="AQ34" s="22"/>
+      <c r="AR34" s="22"/>
+      <c r="AS34" s="22"/>
+      <c r="AT34" s="22"/>
+      <c r="AU34" s="22"/>
+      <c r="AV34" s="22"/>
+      <c r="AW34" s="22"/>
+      <c r="AX34" s="22"/>
+      <c r="AY34" s="22"/>
+      <c r="AZ34" s="22"/>
+      <c r="BA34" s="22"/>
+      <c r="BB34" s="22"/>
+      <c r="BC34" s="22"/>
+      <c r="BD34" s="22"/>
     </row>
     <row r="35" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="25"/>
-      <c r="AL35" s="25"/>
-      <c r="AM35" s="25"/>
-      <c r="AN35" s="25"/>
-      <c r="AO35" s="25"/>
-      <c r="AP35" s="25"/>
-      <c r="AQ35" s="25"/>
-      <c r="AR35" s="25"/>
-      <c r="AS35" s="25"/>
-      <c r="AT35" s="25"/>
-      <c r="AU35" s="25"/>
-      <c r="AV35" s="25"/>
-      <c r="AW35" s="25"/>
-      <c r="AX35" s="25"/>
-      <c r="AY35" s="25"/>
-      <c r="AZ35" s="25"/>
-      <c r="BA35" s="25"/>
-      <c r="BB35" s="25"/>
-      <c r="BC35" s="25"/>
-      <c r="BD35" s="25"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="22"/>
+      <c r="AL35" s="22"/>
+      <c r="AM35" s="22"/>
+      <c r="AN35" s="22"/>
+      <c r="AO35" s="22"/>
+      <c r="AP35" s="22"/>
+      <c r="AQ35" s="22"/>
+      <c r="AR35" s="22"/>
+      <c r="AS35" s="22"/>
+      <c r="AT35" s="22"/>
+      <c r="AU35" s="22"/>
+      <c r="AV35" s="22"/>
+      <c r="AW35" s="22"/>
+      <c r="AX35" s="22"/>
+      <c r="AY35" s="22"/>
+      <c r="AZ35" s="22"/>
+      <c r="BA35" s="22"/>
+      <c r="BB35" s="22"/>
+      <c r="BC35" s="22"/>
+      <c r="BD35" s="22"/>
     </row>
     <row r="36" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="2"/>
-      <c r="AI36" s="2"/>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="25"/>
-      <c r="AL36" s="25"/>
-      <c r="AM36" s="25"/>
-      <c r="AN36" s="25"/>
-      <c r="AO36" s="25"/>
-      <c r="AP36" s="25"/>
-      <c r="AQ36" s="25"/>
-      <c r="AR36" s="25"/>
-      <c r="AS36" s="25"/>
-      <c r="AT36" s="25"/>
-      <c r="AU36" s="25"/>
-      <c r="AV36" s="25"/>
-      <c r="AW36" s="25"/>
-      <c r="AX36" s="25"/>
-      <c r="AY36" s="25"/>
-      <c r="AZ36" s="25"/>
-      <c r="BA36" s="25"/>
-      <c r="BB36" s="25"/>
-      <c r="BC36" s="25"/>
-      <c r="BD36" s="25"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="22"/>
+      <c r="AL36" s="22"/>
+      <c r="AM36" s="22"/>
+      <c r="AN36" s="22"/>
+      <c r="AO36" s="22"/>
+      <c r="AP36" s="22"/>
+      <c r="AQ36" s="22"/>
+      <c r="AR36" s="22"/>
+      <c r="AS36" s="22"/>
+      <c r="AT36" s="22"/>
+      <c r="AU36" s="22"/>
+      <c r="AV36" s="22"/>
+      <c r="AW36" s="22"/>
+      <c r="AX36" s="22"/>
+      <c r="AY36" s="22"/>
+      <c r="AZ36" s="22"/>
+      <c r="BA36" s="22"/>
+      <c r="BB36" s="22"/>
+      <c r="BC36" s="22"/>
+      <c r="BD36" s="22"/>
     </row>
     <row r="37" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2"/>
@@ -3034,26 +3128,26 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="3"/>
-      <c r="AK37" s="25"/>
-      <c r="AL37" s="25"/>
-      <c r="AM37" s="25"/>
-      <c r="AN37" s="25"/>
-      <c r="AO37" s="25"/>
-      <c r="AP37" s="25"/>
-      <c r="AQ37" s="25"/>
-      <c r="AR37" s="25"/>
-      <c r="AS37" s="25"/>
-      <c r="AT37" s="25"/>
-      <c r="AU37" s="25"/>
-      <c r="AV37" s="25"/>
-      <c r="AW37" s="25"/>
-      <c r="AX37" s="25"/>
-      <c r="AY37" s="25"/>
-      <c r="AZ37" s="25"/>
-      <c r="BA37" s="25"/>
-      <c r="BB37" s="25"/>
-      <c r="BC37" s="25"/>
-      <c r="BD37" s="25"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="22"/>
+      <c r="AO37" s="22"/>
+      <c r="AP37" s="22"/>
+      <c r="AQ37" s="22"/>
+      <c r="AR37" s="22"/>
+      <c r="AS37" s="22"/>
+      <c r="AT37" s="22"/>
+      <c r="AU37" s="22"/>
+      <c r="AV37" s="22"/>
+      <c r="AW37" s="22"/>
+      <c r="AX37" s="22"/>
+      <c r="AY37" s="22"/>
+      <c r="AZ37" s="22"/>
+      <c r="BA37" s="22"/>
+      <c r="BB37" s="22"/>
+      <c r="BC37" s="22"/>
+      <c r="BD37" s="22"/>
     </row>
     <row r="38" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2"/>
@@ -3092,26 +3186,26 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="3"/>
-      <c r="AK38" s="25"/>
-      <c r="AL38" s="25"/>
-      <c r="AM38" s="25"/>
-      <c r="AN38" s="25"/>
-      <c r="AO38" s="25"/>
-      <c r="AP38" s="25"/>
-      <c r="AQ38" s="25"/>
-      <c r="AR38" s="25"/>
-      <c r="AS38" s="25"/>
-      <c r="AT38" s="25"/>
-      <c r="AU38" s="25"/>
-      <c r="AV38" s="25"/>
-      <c r="AW38" s="25"/>
-      <c r="AX38" s="25"/>
-      <c r="AY38" s="25"/>
-      <c r="AZ38" s="25"/>
-      <c r="BA38" s="25"/>
-      <c r="BB38" s="25"/>
-      <c r="BC38" s="25"/>
-      <c r="BD38" s="25"/>
+      <c r="AK38" s="22"/>
+      <c r="AL38" s="22"/>
+      <c r="AM38" s="22"/>
+      <c r="AN38" s="22"/>
+      <c r="AO38" s="22"/>
+      <c r="AP38" s="22"/>
+      <c r="AQ38" s="22"/>
+      <c r="AR38" s="22"/>
+      <c r="AS38" s="22"/>
+      <c r="AT38" s="22"/>
+      <c r="AU38" s="22"/>
+      <c r="AV38" s="22"/>
+      <c r="AW38" s="22"/>
+      <c r="AX38" s="22"/>
+      <c r="AY38" s="22"/>
+      <c r="AZ38" s="22"/>
+      <c r="BA38" s="22"/>
+      <c r="BB38" s="22"/>
+      <c r="BC38" s="22"/>
+      <c r="BD38" s="22"/>
     </row>
     <row r="39" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2"/>
@@ -3150,26 +3244,26 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
       <c r="AJ39" s="3"/>
-      <c r="AK39" s="25"/>
-      <c r="AL39" s="25"/>
-      <c r="AM39" s="25"/>
-      <c r="AN39" s="25"/>
-      <c r="AO39" s="25"/>
-      <c r="AP39" s="25"/>
-      <c r="AQ39" s="25"/>
-      <c r="AR39" s="25"/>
-      <c r="AS39" s="25"/>
-      <c r="AT39" s="25"/>
-      <c r="AU39" s="25"/>
-      <c r="AV39" s="25"/>
-      <c r="AW39" s="25"/>
-      <c r="AX39" s="25"/>
-      <c r="AY39" s="25"/>
-      <c r="AZ39" s="25"/>
-      <c r="BA39" s="25"/>
-      <c r="BB39" s="25"/>
-      <c r="BC39" s="25"/>
-      <c r="BD39" s="25"/>
+      <c r="AK39" s="22"/>
+      <c r="AL39" s="22"/>
+      <c r="AM39" s="22"/>
+      <c r="AN39" s="22"/>
+      <c r="AO39" s="22"/>
+      <c r="AP39" s="22"/>
+      <c r="AQ39" s="22"/>
+      <c r="AR39" s="22"/>
+      <c r="AS39" s="22"/>
+      <c r="AT39" s="22"/>
+      <c r="AU39" s="22"/>
+      <c r="AV39" s="22"/>
+      <c r="AW39" s="22"/>
+      <c r="AX39" s="22"/>
+      <c r="AY39" s="22"/>
+      <c r="AZ39" s="22"/>
+      <c r="BA39" s="22"/>
+      <c r="BB39" s="22"/>
+      <c r="BC39" s="22"/>
+      <c r="BD39" s="22"/>
     </row>
     <row r="40" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2"/>
@@ -3208,26 +3302,26 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
       <c r="AJ40" s="3"/>
-      <c r="AK40" s="25"/>
-      <c r="AL40" s="25"/>
-      <c r="AM40" s="25"/>
-      <c r="AN40" s="25"/>
-      <c r="AO40" s="25"/>
-      <c r="AP40" s="25"/>
-      <c r="AQ40" s="25"/>
-      <c r="AR40" s="25"/>
-      <c r="AS40" s="25"/>
-      <c r="AT40" s="25"/>
-      <c r="AU40" s="25"/>
-      <c r="AV40" s="25"/>
-      <c r="AW40" s="25"/>
-      <c r="AX40" s="25"/>
-      <c r="AY40" s="25"/>
-      <c r="AZ40" s="25"/>
-      <c r="BA40" s="25"/>
-      <c r="BB40" s="25"/>
-      <c r="BC40" s="25"/>
-      <c r="BD40" s="25"/>
+      <c r="AK40" s="22"/>
+      <c r="AL40" s="22"/>
+      <c r="AM40" s="22"/>
+      <c r="AN40" s="22"/>
+      <c r="AO40" s="22"/>
+      <c r="AP40" s="22"/>
+      <c r="AQ40" s="22"/>
+      <c r="AR40" s="22"/>
+      <c r="AS40" s="22"/>
+      <c r="AT40" s="22"/>
+      <c r="AU40" s="22"/>
+      <c r="AV40" s="22"/>
+      <c r="AW40" s="22"/>
+      <c r="AX40" s="22"/>
+      <c r="AY40" s="22"/>
+      <c r="AZ40" s="22"/>
+      <c r="BA40" s="22"/>
+      <c r="BB40" s="22"/>
+      <c r="BC40" s="22"/>
+      <c r="BD40" s="22"/>
     </row>
     <row r="41" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2"/>
@@ -3266,26 +3360,26 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="3"/>
-      <c r="AK41" s="25"/>
-      <c r="AL41" s="25"/>
-      <c r="AM41" s="25"/>
-      <c r="AN41" s="25"/>
-      <c r="AO41" s="25"/>
-      <c r="AP41" s="25"/>
-      <c r="AQ41" s="25"/>
-      <c r="AR41" s="25"/>
-      <c r="AS41" s="25"/>
-      <c r="AT41" s="25"/>
-      <c r="AU41" s="25"/>
-      <c r="AV41" s="25"/>
-      <c r="AW41" s="25"/>
-      <c r="AX41" s="25"/>
-      <c r="AY41" s="25"/>
-      <c r="AZ41" s="25"/>
-      <c r="BA41" s="25"/>
-      <c r="BB41" s="25"/>
-      <c r="BC41" s="25"/>
-      <c r="BD41" s="25"/>
+      <c r="AK41" s="22"/>
+      <c r="AL41" s="22"/>
+      <c r="AM41" s="22"/>
+      <c r="AN41" s="22"/>
+      <c r="AO41" s="22"/>
+      <c r="AP41" s="22"/>
+      <c r="AQ41" s="22"/>
+      <c r="AR41" s="22"/>
+      <c r="AS41" s="22"/>
+      <c r="AT41" s="22"/>
+      <c r="AU41" s="22"/>
+      <c r="AV41" s="22"/>
+      <c r="AW41" s="22"/>
+      <c r="AX41" s="22"/>
+      <c r="AY41" s="22"/>
+      <c r="AZ41" s="22"/>
+      <c r="BA41" s="22"/>
+      <c r="BB41" s="22"/>
+      <c r="BC41" s="22"/>
+      <c r="BD41" s="22"/>
     </row>
     <row r="42" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
@@ -3324,26 +3418,26 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="3"/>
-      <c r="AK42" s="25"/>
-      <c r="AL42" s="25"/>
-      <c r="AM42" s="25"/>
-      <c r="AN42" s="25"/>
-      <c r="AO42" s="25"/>
-      <c r="AP42" s="25"/>
-      <c r="AQ42" s="25"/>
-      <c r="AR42" s="25"/>
-      <c r="AS42" s="25"/>
-      <c r="AT42" s="25"/>
-      <c r="AU42" s="25"/>
-      <c r="AV42" s="25"/>
-      <c r="AW42" s="25"/>
-      <c r="AX42" s="25"/>
-      <c r="AY42" s="25"/>
-      <c r="AZ42" s="25"/>
-      <c r="BA42" s="25"/>
-      <c r="BB42" s="25"/>
-      <c r="BC42" s="25"/>
-      <c r="BD42" s="25"/>
+      <c r="AK42" s="22"/>
+      <c r="AL42" s="22"/>
+      <c r="AM42" s="22"/>
+      <c r="AN42" s="22"/>
+      <c r="AO42" s="22"/>
+      <c r="AP42" s="22"/>
+      <c r="AQ42" s="22"/>
+      <c r="AR42" s="22"/>
+      <c r="AS42" s="22"/>
+      <c r="AT42" s="22"/>
+      <c r="AU42" s="22"/>
+      <c r="AV42" s="22"/>
+      <c r="AW42" s="22"/>
+      <c r="AX42" s="22"/>
+      <c r="AY42" s="22"/>
+      <c r="AZ42" s="22"/>
+      <c r="BA42" s="22"/>
+      <c r="BB42" s="22"/>
+      <c r="BC42" s="22"/>
+      <c r="BD42" s="22"/>
     </row>
     <row r="43" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2"/>
@@ -3382,26 +3476,26 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="3"/>
-      <c r="AK43" s="25"/>
-      <c r="AL43" s="25"/>
-      <c r="AM43" s="25"/>
-      <c r="AN43" s="25"/>
-      <c r="AO43" s="25"/>
-      <c r="AP43" s="25"/>
-      <c r="AQ43" s="25"/>
-      <c r="AR43" s="25"/>
-      <c r="AS43" s="25"/>
-      <c r="AT43" s="25"/>
-      <c r="AU43" s="25"/>
-      <c r="AV43" s="25"/>
-      <c r="AW43" s="25"/>
-      <c r="AX43" s="25"/>
-      <c r="AY43" s="25"/>
-      <c r="AZ43" s="25"/>
-      <c r="BA43" s="25"/>
-      <c r="BB43" s="25"/>
-      <c r="BC43" s="25"/>
-      <c r="BD43" s="25"/>
+      <c r="AK43" s="22"/>
+      <c r="AL43" s="22"/>
+      <c r="AM43" s="22"/>
+      <c r="AN43" s="22"/>
+      <c r="AO43" s="22"/>
+      <c r="AP43" s="22"/>
+      <c r="AQ43" s="22"/>
+      <c r="AR43" s="22"/>
+      <c r="AS43" s="22"/>
+      <c r="AT43" s="22"/>
+      <c r="AU43" s="22"/>
+      <c r="AV43" s="22"/>
+      <c r="AW43" s="22"/>
+      <c r="AX43" s="22"/>
+      <c r="AY43" s="22"/>
+      <c r="AZ43" s="22"/>
+      <c r="BA43" s="22"/>
+      <c r="BB43" s="22"/>
+      <c r="BC43" s="22"/>
+      <c r="BD43" s="22"/>
     </row>
     <row r="44" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2"/>
@@ -3439,7 +3533,27 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="22"/>
+      <c r="AL44" s="22"/>
+      <c r="AM44" s="22"/>
+      <c r="AN44" s="22"/>
+      <c r="AO44" s="22"/>
+      <c r="AP44" s="22"/>
+      <c r="AQ44" s="22"/>
+      <c r="AR44" s="22"/>
+      <c r="AS44" s="22"/>
+      <c r="AT44" s="22"/>
+      <c r="AU44" s="22"/>
+      <c r="AV44" s="22"/>
+      <c r="AW44" s="22"/>
+      <c r="AX44" s="22"/>
+      <c r="AY44" s="22"/>
+      <c r="AZ44" s="22"/>
+      <c r="BA44" s="22"/>
+      <c r="BB44" s="22"/>
+      <c r="BC44" s="22"/>
+      <c r="BD44" s="22"/>
     </row>
     <row r="45" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2"/>
@@ -3477,7 +3591,27 @@
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="22"/>
+      <c r="AL45" s="22"/>
+      <c r="AM45" s="22"/>
+      <c r="AN45" s="22"/>
+      <c r="AO45" s="22"/>
+      <c r="AP45" s="22"/>
+      <c r="AQ45" s="22"/>
+      <c r="AR45" s="22"/>
+      <c r="AS45" s="22"/>
+      <c r="AT45" s="22"/>
+      <c r="AU45" s="22"/>
+      <c r="AV45" s="22"/>
+      <c r="AW45" s="22"/>
+      <c r="AX45" s="22"/>
+      <c r="AY45" s="22"/>
+      <c r="AZ45" s="22"/>
+      <c r="BA45" s="22"/>
+      <c r="BB45" s="22"/>
+      <c r="BC45" s="22"/>
+      <c r="BD45" s="22"/>
     </row>
     <row r="46" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2"/>
@@ -3515,7 +3649,27 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
-      <c r="AJ46" s="2"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="22"/>
+      <c r="AL46" s="22"/>
+      <c r="AM46" s="22"/>
+      <c r="AN46" s="22"/>
+      <c r="AO46" s="22"/>
+      <c r="AP46" s="22"/>
+      <c r="AQ46" s="22"/>
+      <c r="AR46" s="22"/>
+      <c r="AS46" s="22"/>
+      <c r="AT46" s="22"/>
+      <c r="AU46" s="22"/>
+      <c r="AV46" s="22"/>
+      <c r="AW46" s="22"/>
+      <c r="AX46" s="22"/>
+      <c r="AY46" s="22"/>
+      <c r="AZ46" s="22"/>
+      <c r="BA46" s="22"/>
+      <c r="BB46" s="22"/>
+      <c r="BC46" s="22"/>
+      <c r="BD46" s="22"/>
     </row>
     <row r="47" spans="1:56" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2"/>
@@ -3669,12 +3823,131 @@
       <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
     </row>
+    <row r="51" spans="1:36" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+    </row>
+    <row r="52" spans="1:36" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+    </row>
+    <row r="53" spans="1:36" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="W5:AC5"/>
   </mergeCells>
   <printOptions headings="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
